--- a/src/attributions/attributions_saliency_traj_201.xlsx
+++ b/src/attributions/attributions_saliency_traj_201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GG5"/>
+  <dimension ref="A1:GG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,1709 +1573,4554 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2229677736759186</v>
+        <v>0.3498007953166962</v>
       </c>
       <c r="B3" t="n">
-        <v>0.208434596657753</v>
+        <v>0.1028686687350273</v>
       </c>
       <c r="C3" t="n">
-        <v>1.828715682029724</v>
+        <v>0.7434614896774292</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4214627146720886</v>
+        <v>0.03683535382151604</v>
       </c>
       <c r="E3" t="n">
-        <v>1.740350961685181</v>
+        <v>0.1554617583751678</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3751040101051331</v>
+        <v>0.1505424231290817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1405748277902603</v>
+        <v>0.09042948484420776</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2815711796283722</v>
+        <v>0.1798758059740067</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6515716910362244</v>
+        <v>0.02705867774784565</v>
       </c>
       <c r="J3" t="n">
-        <v>0.476895809173584</v>
+        <v>0.1120177656412125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1641245484352112</v>
+        <v>0.06708230078220367</v>
       </c>
       <c r="L3" t="n">
-        <v>1.944806575775146</v>
+        <v>0.7186658382415771</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3223177194595337</v>
+        <v>0.04276508837938309</v>
       </c>
       <c r="N3" t="n">
-        <v>1.228762984275818</v>
+        <v>0.2838276624679565</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07297959923744202</v>
+        <v>0.01208141818642616</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4036043584346771</v>
+        <v>0.03506843745708466</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2547233104705811</v>
+        <v>0.06936972588300705</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7652497291564941</v>
+        <v>0.2307672798633575</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02974278479814529</v>
+        <v>0.02590439468622208</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4260063171386719</v>
+        <v>0.2214562445878983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3457744121551514</v>
+        <v>0.108134388923645</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1537663042545319</v>
+        <v>0.1634978502988815</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06592749059200287</v>
+        <v>0.2128375172615051</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01632736250758171</v>
+        <v>0.04673013463616371</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002980038523674011</v>
+        <v>0.06281040608882904</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1469495892524719</v>
+        <v>0.07047098129987717</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1841540932655334</v>
+        <v>0.02706415019929409</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.2307143807411194</v>
+        <v>0.01570993289351463</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.280720442533493</v>
+        <v>0.1848142594099045</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.112763985991478</v>
+        <v>0.02347327768802643</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2179075181484222</v>
+        <v>0.04616321623325348</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.005572132766246796</v>
+        <v>0.2242753058671951</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1650569885969162</v>
+        <v>0.05075225606560707</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01986449956893921</v>
+        <v>0.1003862470388412</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2697744965553284</v>
+        <v>0.06315038353204727</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6193199157714844</v>
+        <v>0.1600183546543121</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.2472397685050964</v>
+        <v>0.0795852467417717</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.02941888570785522</v>
+        <v>0.1462284177541733</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.3616890013217926</v>
+        <v>0.1031381413340569</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.09015297144651413</v>
+        <v>0.05972253903746605</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1714091449975967</v>
+        <v>0.1599386930465698</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1822241842746735</v>
+        <v>0.02762690186500549</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01677287369966507</v>
+        <v>7.608532905578613e-05</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1764571368694305</v>
+        <v>0.07502489537000656</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0175569225102663</v>
+        <v>0.05474948137998581</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0205279216170311</v>
+        <v>0.1630977541208267</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1363668888807297</v>
+        <v>0.02763079106807709</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.583964467048645</v>
+        <v>0.1994955390691757</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3319790363311768</v>
+        <v>0.2811364531517029</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1948072761297226</v>
+        <v>0.05844042077660561</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.3193055391311646</v>
+        <v>0.06882844865322113</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.3866382837295532</v>
+        <v>0.01239330321550369</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.09389007836580276</v>
+        <v>0.1331853717565536</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2760720252990723</v>
+        <v>0.1497567594051361</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.1631431430578232</v>
+        <v>0.04356423020362854</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.03675980865955353</v>
+        <v>0.2173256278038025</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.4958943724632263</v>
+        <v>0.2510920166969299</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1121168583631516</v>
+        <v>0.5132294893264771</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.9671348929405212</v>
+        <v>0.3454229235649109</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1610705256462097</v>
+        <v>0.2019886076450348</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.02662895619869232</v>
+        <v>0.007024038583040237</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.1228822767734528</v>
+        <v>0.1580396592617035</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1389310956001282</v>
+        <v>0.3225882947444916</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.1620093882083893</v>
+        <v>0.1379708796739578</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.04343985021114349</v>
+        <v>0.03605211526155472</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.6904635429382324</v>
+        <v>0.02978180348873138</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.01298829354345798</v>
+        <v>0.07967576384544373</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.3056084513664246</v>
+        <v>0.07582670450210571</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.133373811841011</v>
+        <v>0.04388786852359772</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.2053451836109161</v>
+        <v>0.003053605556488037</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.04377251863479614</v>
+        <v>0.06022526323795319</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.06561342626810074</v>
+        <v>0.002822689712047577</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.2730775475502014</v>
+        <v>0.05464981868863106</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.3999079465866089</v>
+        <v>0.08758608251810074</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.2185316830873489</v>
+        <v>0.1961923241615295</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.001958498731255531</v>
+        <v>0.1849286258220673</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.7150316834449768</v>
+        <v>0.01641310565173626</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.4050881862640381</v>
+        <v>0.08024932444095612</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.1227704212069511</v>
+        <v>0.01570476219058037</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.09260115772485733</v>
+        <v>0.0271319504827261</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1067074984312057</v>
+        <v>0.1321704238653183</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.09421299397945404</v>
+        <v>0.0378120131790638</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.2874970436096191</v>
+        <v>0.01486594974994659</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.2923933267593384</v>
+        <v>0.150558814406395</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.02648134902119637</v>
+        <v>0.07393212616443634</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.2631565630435944</v>
+        <v>0.05934525653719902</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.1033531054854393</v>
+        <v>0.02197922952473164</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02606885321438313</v>
+        <v>0.007029680535197258</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.2275637984275818</v>
+        <v>0.04696907848119736</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.04629005491733551</v>
+        <v>0.02328960224986076</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1143606379628181</v>
+        <v>0.1230172738432884</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.5729668140411377</v>
+        <v>0.1332275569438934</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.4676947891712189</v>
+        <v>0.02954603172838688</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.111214891076088</v>
+        <v>0.1522057354450226</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.2252092361450195</v>
+        <v>0.08613225072622299</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.1356666088104248</v>
+        <v>0.1758129894733429</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.146006315946579</v>
+        <v>0.1123808100819588</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.1307308822870255</v>
+        <v>0.03663142397999763</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.6890068650245667</v>
+        <v>0.105953186750412</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.1072380691766739</v>
+        <v>0.02059539034962654</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.2256547659635544</v>
+        <v>0.004272762686014175</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.3094249963760376</v>
+        <v>0.1401223391294479</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.007676374167203903</v>
+        <v>0.07817491888999939</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.3869381546974182</v>
+        <v>0.00837448425590992</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.1242973208427429</v>
+        <v>0.03204385191202164</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0123857855796814</v>
+        <v>0.01548733934760094</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.1712202131748199</v>
+        <v>0.0140281543135643</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.1283456236124039</v>
+        <v>0.04973492026329041</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.02931712940335274</v>
+        <v>0.1142385080456734</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.8167427182197571</v>
+        <v>0.1472117155790329</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.6173151731491089</v>
+        <v>0.454008162021637</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.3367266058921814</v>
+        <v>0.06626239418983459</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.02332751825451851</v>
+        <v>0.3137365281581879</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.1984020471572876</v>
+        <v>0.03938581049442291</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.1817263960838318</v>
+        <v>0.1968546211719513</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.5387154221534729</v>
+        <v>0.00559541117399931</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.3478046953678131</v>
+        <v>0.02965499833226204</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.07387930154800415</v>
+        <v>0.0542517714202404</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.3846782445907593</v>
+        <v>0.1170996725559235</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01027946919202805</v>
+        <v>0.05218836665153503</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.1546776443719864</v>
+        <v>0.075766421854496</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.009420260787010193</v>
+        <v>0.127438873052597</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.1036065667867661</v>
+        <v>0.05573781579732895</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.2611212432384491</v>
+        <v>0.04882006347179413</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.2780514061450958</v>
+        <v>0.1068124324083328</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.008108772337436676</v>
+        <v>0.1927907317876816</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.09830464422702789</v>
+        <v>0.008008353412151337</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.1463870704174042</v>
+        <v>0.0804559588432312</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.04813936352729797</v>
+        <v>0.08059908449649811</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.1344576776027679</v>
+        <v>0.04051681607961655</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0256258025765419</v>
+        <v>0.05755621939897537</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.1711879372596741</v>
+        <v>0.1409544795751572</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.1022723242640495</v>
+        <v>0.01789292693138123</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.06917266547679901</v>
+        <v>0.06510477513074875</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.2180663645267487</v>
+        <v>0.0373854823410511</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.2082260102033615</v>
+        <v>0.06870707124471664</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.08774758875370026</v>
+        <v>0.1472367942333221</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.4015112519264221</v>
+        <v>0.2149127125740051</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.2527734935283661</v>
+        <v>0.1828034520149231</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.3322387933731079</v>
+        <v>0.05712626129388809</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.4994828999042511</v>
+        <v>0.1411892771720886</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.08923665434122086</v>
+        <v>0.006384499371051788</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.008360691368579865</v>
+        <v>0.01367869880050421</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.01389142498373985</v>
+        <v>0.02322180010378361</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.06273363530635834</v>
+        <v>0.005019390489906073</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.1925506144762039</v>
+        <v>0.1121107935905457</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.1329000890254974</v>
+        <v>0.07688643038272858</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.07218636572360992</v>
+        <v>0.01522259414196014</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.170219749212265</v>
+        <v>0.1311749815940857</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.05840124934911728</v>
+        <v>0.09493465721607208</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.2871735990047455</v>
+        <v>0.03647865355014801</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.02315378561615944</v>
+        <v>0.02425725013017654</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.08688265830278397</v>
+        <v>0.1445154845714569</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1720318645238876</v>
+        <v>0.03052367642521858</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.1844940781593323</v>
+        <v>0.0547047033905983</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.3161229193210602</v>
+        <v>0.1535998433828354</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.04109145700931549</v>
+        <v>0.0642269104719162</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.2929826974868774</v>
+        <v>0.01387753803282976</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.02793610841035843</v>
+        <v>0.03383021429181099</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.01034783571958542</v>
+        <v>0.005129233002662659</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.1844991445541382</v>
+        <v>0.007503356784582138</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.1098955497145653</v>
+        <v>0.01997093856334686</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02790099382400513</v>
+        <v>0.1061587259173393</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.00338146835565567</v>
+        <v>0.09712623059749603</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.2805933952331543</v>
+        <v>0.02726328186690807</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.2343221306800842</v>
+        <v>0.07005930691957474</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.3174519240856171</v>
+        <v>0.01056524738669395</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.02081771194934845</v>
+        <v>0.001852004788815975</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.06642471253871918</v>
+        <v>0.04142885282635689</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.3197926580905914</v>
+        <v>0.06881142407655716</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.263262003660202</v>
+        <v>0.03998234868049622</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.3217448592185974</v>
+        <v>0.0540725365281105</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.03183406591415405</v>
+        <v>0.02474343776702881</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.2528935670852661</v>
+        <v>0.04714220017194748</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.006310448050498962</v>
+        <v>0.1810938119888306</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.412091463804245</v>
+        <v>0.09692122787237167</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.3738460540771484</v>
+        <v>0.02161380834877491</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0006620530039072037</v>
+        <v>0.03972036391496658</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.08778645843267441</v>
+        <v>0.2411503493785858</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.3573465049266815</v>
+        <v>0.02315345034003258</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.1805423051118851</v>
+        <v>0.07562290877103806</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.100778840482235</v>
+        <v>0.06371217966079712</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.1696449965238571</v>
+        <v>0.183578833937645</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1589794456958771</v>
+        <v>0.04931045323610306</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.3814383149147034</v>
+        <v>0.06891076266765594</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.2936897873878479</v>
+        <v>0.08334968239068985</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.1023833453655243</v>
+        <v>0.05254943668842316</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.07058806717395782</v>
+        <v>0.05884883180260658</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.2010097205638885</v>
+        <v>0.04742716252803802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01537508890032768</v>
+        <v>0.009609529748558998</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1537622511386871</v>
+        <v>0.2950366139411926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1885128319263458</v>
+        <v>0.05386928468942642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005629522725939751</v>
+        <v>0.105328343808651</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01362499035894871</v>
+        <v>0.3594523072242737</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008707985281944275</v>
+        <v>0.06248387321829796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01103557273745537</v>
+        <v>0.1345805823802948</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01896783336997032</v>
+        <v>0.101901687681675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04517501592636108</v>
+        <v>0.01383042801171541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001958444248884916</v>
+        <v>0.06158069893717766</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1732954978942871</v>
+        <v>0.1953791826963425</v>
       </c>
       <c r="L4" t="n">
-        <v>0.208057701587677</v>
+        <v>0.02685128524899483</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0692768469452858</v>
+        <v>0.005910497158765793</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01187343150377274</v>
+        <v>0.3020245432853699</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01247179880738258</v>
+        <v>0.05818870291113853</v>
       </c>
       <c r="P4" t="n">
-        <v>0.009715460240840912</v>
+        <v>0.1507167965173721</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02021816931664944</v>
+        <v>0.02400314062833786</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03250729292631149</v>
+        <v>0.002803303301334381</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007699006237089634</v>
+        <v>0.01703566499054432</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02933893352746964</v>
+        <v>0.04940268397331238</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01994649320840836</v>
+        <v>0.03363604843616486</v>
       </c>
       <c r="V4" t="n">
-        <v>0.01628239825367928</v>
+        <v>0.05810718610882759</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005766985472291708</v>
+        <v>0.1175371631979942</v>
       </c>
       <c r="X4" t="n">
-        <v>0.02872763946652412</v>
+        <v>0.06642633676528931</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01672443747520447</v>
+        <v>0.04808911681175232</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.007688047830015421</v>
+        <v>0.031728845089674</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00274050678126514</v>
+        <v>0.0009145066142082214</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02666577138006687</v>
+        <v>0.03844882920384407</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05542559549212456</v>
+        <v>0.02148154750466347</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01704655960202217</v>
+        <v>0.0008400722872465849</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.01917105913162231</v>
+        <v>0.03364962711930275</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0202313270419836</v>
+        <v>0.02887188643217087</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.009825609624385834</v>
+        <v>0.02734301798045635</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.04290055483579636</v>
+        <v>0.03913028165698051</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.01440396066755056</v>
+        <v>0.0109760407358408</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.05218342691659927</v>
+        <v>0.02220779284834862</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.007996954023838043</v>
+        <v>0.02517749927937984</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.06123762577772141</v>
+        <v>0.08959612250328064</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.07525331526994705</v>
+        <v>0.02035963535308838</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.003482186701148748</v>
+        <v>0.01926542446017265</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0182691253721714</v>
+        <v>0.01653128117322922</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.007250260561704636</v>
+        <v>0.05541880801320076</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0118600856512785</v>
+        <v>0.02486972697079182</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01537055056542158</v>
+        <v>0.03520042821764946</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.001091925660148263</v>
+        <v>0.001636081375181675</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.03223606199026108</v>
+        <v>0.01642127893865108</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.09260938316583633</v>
+        <v>0.2172432541847229</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.08913566172122955</v>
+        <v>0.05689528957009315</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.00551262404769659</v>
+        <v>0.06868424266576767</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.04010031744837761</v>
+        <v>0.1991010159254074</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.02900770679116249</v>
+        <v>0.05430764704942703</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.03828022256493568</v>
+        <v>0.002329161390662193</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.03436501696705818</v>
+        <v>0.02630947344005108</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.01348141301423311</v>
+        <v>0.02168788015842438</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.05948029831051826</v>
+        <v>0.02257546037435532</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0478985607624054</v>
+        <v>0.0418967604637146</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.05370885133743286</v>
+        <v>0.01809315569698811</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.006270939484238625</v>
+        <v>0.002233251929283142</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.06234731152653694</v>
+        <v>0.1456615924835205</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.03958055004477501</v>
+        <v>0.01899691671133041</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.005807985551655293</v>
+        <v>0.04808111488819122</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.01303363777697086</v>
+        <v>0.001879740506410599</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.004649442620575428</v>
+        <v>0.001564042642712593</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.02303126081824303</v>
+        <v>0.06884466111660004</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.02993150986731052</v>
+        <v>0.02084465511143208</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.012478057295084</v>
+        <v>0.01078776828944683</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03365158289670944</v>
+        <v>0.03556054830551147</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06005510315299034</v>
+        <v>0.02842999994754791</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.06250478327274323</v>
+        <v>0.03876221552491188</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.02395076677203178</v>
+        <v>0.02614660002291203</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.03042878955602646</v>
+        <v>0.025959312915802</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.009744300507009029</v>
+        <v>0.004713238216936588</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.02213888242840767</v>
+        <v>0.04193562641739845</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0666515901684761</v>
+        <v>0.1695095151662827</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.06648252159357071</v>
+        <v>0.02863865904510021</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.01645655930042267</v>
+        <v>0.05152993649244308</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01059737894684076</v>
+        <v>0.1614287942647934</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.008050675503909588</v>
+        <v>0.1081554442644119</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.0002186493948101997</v>
+        <v>0.03308822214603424</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.04074686393141747</v>
+        <v>0.01637035608291626</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03061526641249657</v>
+        <v>0.009806424379348755</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.006920858286321163</v>
+        <v>0.02015622146427631</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.03017121180891991</v>
+        <v>0.03026322089135647</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02707432769238949</v>
+        <v>0.01871997863054276</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.01490241102874279</v>
+        <v>0.02011477947235107</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.007568654604256153</v>
+        <v>0.05589455738663673</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.006838209927082062</v>
+        <v>0.04264265298843384</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.009782618843019009</v>
+        <v>0.000896054320037365</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.002518740249797702</v>
+        <v>0.01409429311752319</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.008523241616785526</v>
+        <v>0.01123412139713764</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.007035738788545132</v>
+        <v>0.01857389509677887</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.003825155785307288</v>
+        <v>0.02442282438278198</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.02489770203828812</v>
+        <v>0.009679177775979042</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.00311342254281044</v>
+        <v>0.05011821910738945</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.01769927330315113</v>
+        <v>0.06061656773090363</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.005784451495856047</v>
+        <v>0.007250799797475338</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.690086305141449e-05</v>
+        <v>0.08485640585422516</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.003242542734369636</v>
+        <v>0.07629764825105667</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.0005342032527551055</v>
+        <v>0.01291217468678951</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.007842270657420158</v>
+        <v>0.02104876935482025</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.01913290843367577</v>
+        <v>0.01792414486408234</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01908507756888866</v>
+        <v>0.01614526472985744</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.01361607201397419</v>
+        <v>0.02674506790935993</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.007858159951865673</v>
+        <v>0.05315770581364632</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.003647579345852137</v>
+        <v>0.06481778621673584</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.01000657863914967</v>
+        <v>0.01174418721348047</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.002497710520401597</v>
+        <v>0.009105485863983631</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.005750668235123158</v>
+        <v>0.005056065041571856</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.03399355337023735</v>
+        <v>0.01998263224959373</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.04502680525183678</v>
+        <v>0.102499932050705</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.006155097857117653</v>
+        <v>0.01652976870536804</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.0167741309851408</v>
+        <v>0.0810864120721817</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.0007636928930878639</v>
+        <v>0.002775819972157478</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.002723002107813954</v>
+        <v>0.02849125675857067</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.01111510116606951</v>
+        <v>0.08661255240440369</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.02713595889508724</v>
+        <v>0.04391998052597046</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.008190709166228771</v>
+        <v>0.01400216482579708</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.002716081216931343</v>
+        <v>0.06067905575037003</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.007630620617419481</v>
+        <v>0.04343065246939659</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.01499100960791111</v>
+        <v>0.05829508975148201</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01353341341018677</v>
+        <v>0.07296121865510941</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.03782393783330917</v>
+        <v>0.03850466758012772</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.02635075338184834</v>
+        <v>0.01317153871059418</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0135595016181469</v>
+        <v>0.001633758656680584</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.02194879949092865</v>
+        <v>0.07352384924888611</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.006237550638616085</v>
+        <v>0.01299867406487465</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.03026316873729229</v>
+        <v>0.004871226847171783</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0004211803898215294</v>
+        <v>0.04376699775457382</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.02333762124180794</v>
+        <v>0.02701165899634361</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.001243996783159673</v>
+        <v>0.0116847101598978</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.008747832849621773</v>
+        <v>0.05884658545255661</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.02595675364136696</v>
+        <v>0.01920310221612453</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.02064215391874313</v>
+        <v>0.007747902534902096</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.02353179082274437</v>
+        <v>0.04068003967404366</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.001711299293674529</v>
+        <v>0.03178737312555313</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.009899676777422428</v>
+        <v>0.01935024932026863</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.01098963897675276</v>
+        <v>0.008892068639397621</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01580410823225975</v>
+        <v>0.004937490448355675</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.01884628646075726</v>
+        <v>0.004840406123548746</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.006160832941532135</v>
+        <v>0.06279261410236359</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.01702017709612846</v>
+        <v>0.04157833009958267</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.02267520874738693</v>
+        <v>0.01122681889683008</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.007207051385194063</v>
+        <v>0.01081357151269913</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.01573918201029301</v>
+        <v>0.009363701567053795</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.009001180529594421</v>
+        <v>0.009883741848170757</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.005085388198494911</v>
+        <v>0.02878552675247192</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.01202150341123343</v>
+        <v>0.002242653165012598</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.01130002737045288</v>
+        <v>0.005539653822779655</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.007214195095002651</v>
+        <v>0.01209314819425344</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.01608765311539173</v>
+        <v>0.1921326369047165</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.003034095745533705</v>
+        <v>0.00576379569247365</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.008377519436180592</v>
+        <v>0.06994136422872543</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.03379037231206894</v>
+        <v>0.03061483986675739</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.01817639730870724</v>
+        <v>0.02354095503687859</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.01808654889464378</v>
+        <v>0.008565459400415421</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.0267101563513279</v>
+        <v>0.02346383221447468</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.01437859889119864</v>
+        <v>0.03059175983071327</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.005278424825519323</v>
+        <v>0.05664614588022232</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.005600793287158012</v>
+        <v>0.04981651529669762</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.01297770533710718</v>
+        <v>0.004729202017188072</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.002835939638316631</v>
+        <v>0.01965029165148735</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.01359112653881311</v>
+        <v>0.002008849289268255</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.009032262489199638</v>
+        <v>0.02548776566982269</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.04484748840332031</v>
+        <v>0.06077080592513084</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.08741465955972672</v>
+        <v>0.01212548278272152</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.003462704364210367</v>
+        <v>0.05585398897528648</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01975042745471001</v>
+        <v>0.005233101546764374</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.01407025102525949</v>
+        <v>0.04402243345975876</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0006363536231219769</v>
+        <v>0.0002884399145841599</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.01601727679371834</v>
+        <v>0.00165865570306778</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.03845413774251938</v>
+        <v>0.01832086779177189</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.05365506187081337</v>
+        <v>0.02043144404888153</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0357784628868103</v>
+        <v>0.07050517946481705</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0217699371278286</v>
+        <v>0.03753751516342163</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0339118093252182</v>
+        <v>0.03850623965263367</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.008267996832728386</v>
+        <v>0.1418686211109161</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.005914906039834023</v>
+        <v>0.0158933587372303</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.002706404775381088</v>
+        <v>0.02650370821356773</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0158113669604063</v>
+        <v>0.03470540791749954</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.03599284216761589</v>
+        <v>0.02219202928245068</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.01145428977906704</v>
+        <v>0.03313335031270981</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.01263786293566227</v>
+        <v>0.013252935372293</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.02062816172838211</v>
+        <v>0.05949127301573753</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.01671592332422733</v>
+        <v>0.03819471597671509</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.04469406604766846</v>
+        <v>0.1063447147607803</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.004644205328077078</v>
+        <v>0.03647076338529587</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.02412748895585537</v>
+        <v>0.08791500329971313</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.01654156856238842</v>
+        <v>0.008098900318145752</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.01172832306474447</v>
+        <v>0.01010201964527369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>8.851793245412409e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.002023112261667848</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.000124317390145734</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.001058741938322783</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.001237376360222697</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.000787760189268738</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0003025557089131325</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.441815013298765e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0002158983843401074</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.058527363464236e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.001691185287199914</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.0001633921201573685</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.0002328296832274646</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.0008064024732448161</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.0004626454028766602</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.0005704559735022485</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.0003637755871750414</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>7.176625513238832e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>5.113893712405115e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.0001054455060511827</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.697782863629982e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.0003336518711876124</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>5.953882009634981e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.0001595807116245851</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.0002458253584336489</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.000106243351183366</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.0002913595526479185</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>5.396018968895078e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.081680941046216e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.0002383929386269301</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.0004465369565878063</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.0002372492017457262</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>0.0002042418200289831</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.694441016297787e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>0.0003505935601424426</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>0.0002171149535570294</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.0001004216464934871</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.0003426907060202211</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>0.0001094039471354336</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>4.854981307289563e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.665994750510436e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>0.000244864058913663</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>6.389144255081192e-05</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>0.0001984361006179824</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.0001807198277674615</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.0002818388747982681</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.00105719524435699</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>8.209384759538807e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.0009880943689495325</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>0.0008341582724824548</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>0.0004823039344046265</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>0.0003755313227884471</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>0.0001675768144195899</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>0.0003868514904752374</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>0.0002073123323498294</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.0002962073776870966</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>0.0002674198476597667</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>8.426637214142829e-05</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>0.0006820362177677453</v>
       </c>
       <c r="BH5" t="n">
-        <v>0</v>
+        <v>0.0002710165863391012</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>6.198891060194001e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>0.0004262124130036682</v>
       </c>
       <c r="BK5" t="n">
-        <v>0</v>
+        <v>0.0001950269361259416</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>8.25935130706057e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.0001793535775505006</v>
       </c>
       <c r="BN5" t="n">
-        <v>0</v>
+        <v>0.0001585024583619088</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>4.556044586934149e-05</v>
       </c>
       <c r="BP5" t="n">
-        <v>0</v>
+        <v>0.0004958437057211995</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>0.0001348278892692178</v>
       </c>
       <c r="BR5" t="n">
-        <v>0</v>
+        <v>2.606377165648155e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>0.000321641331538558</v>
       </c>
       <c r="BT5" t="n">
-        <v>0</v>
+        <v>3.907117206836119e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>0.0002604606270324439</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.0007387830410152674</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>4.088938294444233e-05</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>0.0003662765375338495</v>
       </c>
       <c r="BY5" t="n">
-        <v>0</v>
+        <v>0.0003828006447292864</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>8.905321010388434e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>0.0002087751345243305</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>5.773087104898877e-05</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>0.0002664797066245228</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>5.22645132150501e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>0.0002027602458838373</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>9.659856732469052e-05</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.0002217259025201201</v>
       </c>
       <c r="CH5" t="n">
-        <v>0</v>
+        <v>6.096911238273606e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.0001331845851382241</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>4.460851414478384e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>6.999754987191409e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>0.0002129139029420912</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>1.862874887592625e-05</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>0.0002915039949584752</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>8.43620509840548e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>0.0004821795737370849</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0</v>
+        <v>8.215494744945318e-05</v>
       </c>
       <c r="CR5" t="n">
-        <v>0</v>
+        <v>0.0004221690469421446</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>0.000552272074855864</v>
       </c>
       <c r="CT5" t="n">
-        <v>0</v>
+        <v>0.0002619011502247304</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>9.573502757120878e-05</v>
       </c>
       <c r="CV5" t="n">
-        <v>0</v>
+        <v>1.937299202836584e-06</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>0.0002473648055456579</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>0.0001302573800785467</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>0.0003052015963476151</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>0.0001092843231162988</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>0.0002201816969318315</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>7.026336970739067e-05</v>
       </c>
       <c r="DC5" t="n">
-        <v>0</v>
+        <v>0.0001011342246783897</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>0.0001818935415940359</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>9.282289101975039e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.0003774634678848088</v>
       </c>
       <c r="DG5" t="n">
-        <v>0</v>
+        <v>0.0002200860617449507</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.001354398322291672</v>
       </c>
       <c r="DI5" t="n">
-        <v>0</v>
+        <v>0.0009718362125568092</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>6.743392441421747e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>0.0004874771402683109</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>0.000699876865837723</v>
       </c>
       <c r="DM5" t="n">
-        <v>0</v>
+        <v>0.0001042717485688627</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>0.0002380973019171506</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>0.0001891873398562893</v>
       </c>
       <c r="DP5" t="n">
-        <v>0</v>
+        <v>0.0005023335688747466</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>0.000119866817840375</v>
       </c>
       <c r="DR5" t="n">
-        <v>0</v>
+        <v>0.0001027449470711872</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>0.0001538310170872137</v>
       </c>
       <c r="DT5" t="n">
-        <v>0</v>
+        <v>0.0001135014172177762</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>0.0001510572910774499</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>0.0002577322593424469</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>0.0001152884433395229</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>3.483884211163968e-05</v>
       </c>
       <c r="DY5" t="n">
-        <v>0</v>
+        <v>0.0003949866513721645</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>0.0002315038291271776</v>
       </c>
       <c r="EA5" t="n">
-        <v>0</v>
+        <v>1.697270636213943e-05</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>0.0001586223079357296</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>7.775693666189909e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>0.0002323570370208472</v>
       </c>
       <c r="EE5" t="n">
-        <v>0</v>
+        <v>0.0001479299244238064</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>0.0002036591904470697</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.0001427118550054729</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>0.0002239669993286952</v>
       </c>
       <c r="EI5" t="n">
-        <v>0</v>
+        <v>2.733160727075301e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0</v>
+        <v>0.0003277658834122121</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.0002619909646455199</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>3.373934305272996e-07</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>1.08624626591336e-05</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>6.990891415625811e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0</v>
+        <v>3.415310857235454e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>8.72476175572956e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0</v>
+        <v>0.0001201421182486229</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.0001520471560070291</v>
       </c>
       <c r="ES5" t="n">
-        <v>0</v>
+        <v>7.760183507343754e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.0003563420032151043</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>0.0001574520574649796</v>
       </c>
       <c r="EV5" t="n">
-        <v>0</v>
+        <v>0.0002205854980275035</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>9.468345524510369e-05</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>2.066695014946163e-05</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.0002259644534206018</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>4.820678077521734e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.0002542333968449384</v>
       </c>
       <c r="FB5" t="n">
-        <v>0</v>
+        <v>3.820436177193187e-06</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.0001386741059832275</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>5.265138679533266e-05</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>6.502724863821641e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>0</v>
+        <v>0.0002320414932910353</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>6.998135359026492e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>0.0003029096114914864</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>3.507511792122386e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>0.0003342957061249763</v>
       </c>
       <c r="FK5" t="n">
-        <v>0</v>
+        <v>0.0002094650990329683</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>3.555732837412506e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>6.992333510424942e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>0.0002659710880834609</v>
       </c>
       <c r="FO5" t="n">
-        <v>0</v>
+        <v>7.803125481586903e-05</v>
       </c>
       <c r="FP5" t="n">
-        <v>0</v>
+        <v>5.362738738767803e-05</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.0004159285745117813</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>4.759881994687021e-05</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>0.0005400276859290898</v>
       </c>
       <c r="FT5" t="n">
-        <v>0</v>
+        <v>0.0004385832289699465</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>0.0001441230706404895</v>
       </c>
       <c r="FV5" t="n">
-        <v>0</v>
+        <v>0.0001180316030513495</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>4.857670865021646e-05</v>
       </c>
       <c r="FX5" t="n">
-        <v>0</v>
+        <v>2.49797958531417e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>0.000100615419796668</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>1.539440745546017e-06</v>
       </c>
       <c r="GA5" t="n">
-        <v>0</v>
+        <v>0.0001011327403830364</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>0.0004033126460853964</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>0.0004721357836388052</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>5.487503585754894e-05</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>0.0006084403139539063</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>9.944164048647508e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>1.680705827311613e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.02308423258364201</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2700941860675812</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0121845779940486</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1400018483400345</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03652042523026466</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2636938095092773</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.004772966727614403</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.09588789939880371</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03361897543072701</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05820509791374207</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2540064752101898</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00303701451048255</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1028423234820366</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.001460518687963486</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2426442503929138</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01864532195031643</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04840560629963875</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.009806429035961628</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01251366175711155</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.01337157469242811</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.02460465952754021</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.04296129196882248</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.07205949723720551</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01753161661326885</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.02438260987401009</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.06725317239761353</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04252458363771439</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.005329102277755737</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01731729507446289</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01848237402737141</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01523731276392937</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.02967013418674469</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.02477460727095604</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01395186129957438</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.006000030785799026</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.02479415200650692</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.02446242980659008</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.04352667927742004</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.001667232252657413</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.006943641230463982</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.001152393873780966</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.03269098326563835</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.002945689484477043</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0170839000493288</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.02470722794532776</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.02915184944868088</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1975713521242142</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.001950948499143124</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.05770295858383179</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.02765282057225704</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.1364703774452209</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.01165301818400621</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.02164324559271336</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.0653376579284668</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.02452132478356361</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.0472516342997551</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.06001319363713264</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.009381678886711597</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.05216707661747932</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.08037464320659637</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.01857436820864677</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0.01689907163381577</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0.001865943893790245</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0.001097093801945448</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.07127029448747635</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.01000308804214001</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.02312815375626087</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.006425327155739069</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.00216773385182023</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.01239768415689468</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.00272298650816083</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.004344434011727571</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.01975430175662041</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.1018017828464508</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.0128833893686533</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.05302686616778374</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.02663053944706917</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.05129071325063705</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.01684296317398548</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.0006298068910837173</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.04623309522867203</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.004180599004030228</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.03300882875919342</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.0277280043810606</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.02199049666523933</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.003947626799345016</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.04461454972624779</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.01749347895383835</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.01310320012271404</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.02309484034776688</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.05126170441508293</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.005598020739853382</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.006117299664765596</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0.01507003419101238</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.01949442736804485</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.003078053239732981</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.05300744995474815</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.05403919517993927</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.005935311317443848</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.002167431637644768</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.02796841599047184</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.02205833047628403</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.03464195877313614</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.005702638067305088</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.04850707203149796</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0.01737946271896362</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0.02640135586261749</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.008576655760407448</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.005576861556619406</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0.009329527616500854</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0.008913579396903515</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0.1084200292825699</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.03606671094894409</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.002494313754141331</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0.005248419940471649</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.03802705556154251</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.01558523345738649</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.005589612759649754</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.007432531099766493</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.01535838469862938</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0.002569898962974548</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.01032143458724022</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>0.004753006622195244</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.02424870431423187</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0.0107392119243741</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>0.03175603970885277</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>0.002269883640110493</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>0.02471088618040085</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0.02203634567558765</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0.002790269441902637</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>0.0009887428022921085</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0.01825403608381748</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>0.002931427676230669</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>0.01158789545297623</v>
+      </c>
+      <c r="EE6" t="n">
+        <v>0.0023620689753443</v>
+      </c>
+      <c r="EF6" t="n">
+        <v>0.01429750118404627</v>
+      </c>
+      <c r="EG6" t="n">
+        <v>0.03707843646407127</v>
+      </c>
+      <c r="EH6" t="n">
+        <v>0.01671922020614147</v>
+      </c>
+      <c r="EI6" t="n">
+        <v>0.007259863428771496</v>
+      </c>
+      <c r="EJ6" t="n">
+        <v>0.002123698126524687</v>
+      </c>
+      <c r="EK6" t="n">
+        <v>0.04727816581726074</v>
+      </c>
+      <c r="EL6" t="n">
+        <v>0.01379426103085279</v>
+      </c>
+      <c r="EM6" t="n">
+        <v>0.006734445225447416</v>
+      </c>
+      <c r="EN6" t="n">
+        <v>0.01293251849710941</v>
+      </c>
+      <c r="EO6" t="n">
+        <v>0.005293264053761959</v>
+      </c>
+      <c r="EP6" t="n">
+        <v>0.01254746876657009</v>
+      </c>
+      <c r="EQ6" t="n">
+        <v>0.01478577218949795</v>
+      </c>
+      <c r="ER6" t="n">
+        <v>0.0212175901979208</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0.009346412494778633</v>
+      </c>
+      <c r="ET6" t="n">
+        <v>0.04084492847323418</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0.031680628657341</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0.07610173523426056</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0.01037327572703362</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0.002322782995179296</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0.02568789012730122</v>
+      </c>
+      <c r="EZ6" t="n">
+        <v>0.01824776083230972</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0.03007044643163681</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0.001091984333470464</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0.0403733029961586</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0.02913432754576206</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0.01410173624753952</v>
+      </c>
+      <c r="FF6" t="n">
+        <v>0.02204821072518826</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0.01217825710773468</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0.0006711384048685431</v>
+      </c>
+      <c r="FI6" t="n">
+        <v>0.009708542376756668</v>
+      </c>
+      <c r="FJ6" t="n">
+        <v>0.04318524897098541</v>
+      </c>
+      <c r="FK6" t="n">
+        <v>0.01101253926753998</v>
+      </c>
+      <c r="FL6" t="n">
+        <v>0.02679337002336979</v>
+      </c>
+      <c r="FM6" t="n">
+        <v>0.008857926353812218</v>
+      </c>
+      <c r="FN6" t="n">
+        <v>0.02129599824547768</v>
+      </c>
+      <c r="FO6" t="n">
+        <v>0.01910114102065563</v>
+      </c>
+      <c r="FP6" t="n">
+        <v>0.01442377828061581</v>
+      </c>
+      <c r="FQ6" t="n">
+        <v>0.05279998481273651</v>
+      </c>
+      <c r="FR6" t="n">
+        <v>0.03885854780673981</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>0.02426140382885933</v>
+      </c>
+      <c r="FT6" t="n">
+        <v>0.01370736956596375</v>
+      </c>
+      <c r="FU6" t="n">
+        <v>0.008922290056943893</v>
+      </c>
+      <c r="FV6" t="n">
+        <v>0.02142512053251266</v>
+      </c>
+      <c r="FW6" t="n">
+        <v>0.003675260348245502</v>
+      </c>
+      <c r="FX6" t="n">
+        <v>0.01859917491674423</v>
+      </c>
+      <c r="FY6" t="n">
+        <v>0.04650051146745682</v>
+      </c>
+      <c r="FZ6" t="n">
+        <v>0.01996774598956108</v>
+      </c>
+      <c r="GA6" t="n">
+        <v>0.03209981322288513</v>
+      </c>
+      <c r="GB6" t="n">
+        <v>0.01183719653636217</v>
+      </c>
+      <c r="GC6" t="n">
+        <v>0.02790356427431107</v>
+      </c>
+      <c r="GD6" t="n">
+        <v>0.01698098331689835</v>
+      </c>
+      <c r="GE6" t="n">
+        <v>0.1272857487201691</v>
+      </c>
+      <c r="GF6" t="n">
+        <v>0.001055099070072174</v>
+      </c>
+      <c r="GG6" t="n">
+        <v>0.005722253583371639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.0001625073055038229</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.003670740406960249</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.533721898449585e-05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0009331564069725573</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.001097588567063212</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001307672588154674</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0004255551612004638</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0005912304040975869</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00065939238993451</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0002234159910585731</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.003435318591073155</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.02252727933228e-05</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0004990622983314097</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0002625968481879681</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.001154388766735792</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.0002413186739431694</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.0001780540042091161</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.000681525852996856</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.000188314777915366</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.00041594059439376</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.658635457919445e-05</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0002292959106853232</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0003594657173380256</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0001808006782084703</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.908408249728382e-05</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.000536738836672157</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.0002643791376613081</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0002589089854154736</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0001823353377403691</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0001477868936490268</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.0001958820794243366</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>3.366581950103864e-05</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.626610411331058e-05</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.015810115262866e-05</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.627723733894527e-05</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.000165001314599067</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.0005129930796101689</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.0004245954041834921</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.0001317017304245383</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.00026314752176404</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.000236154068261385</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.0003279149241279811</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0002231803664471954</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>8.97034551599063e-05</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.0002602206950541586</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.0002756398171186447</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.002395435236394405</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.0004316969425417483</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.445483788615093e-05</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>8.692317351233214e-05</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.0003603432851377875</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.0006580305634997785</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.000418921816162765</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.0002177967253373936</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.0001899121562018991</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.0005346187390387058</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.0005369714926928282</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>9.533456614008173e-05</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.0009622533107176423</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.000657912518363446</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.0001465335371904075</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0.0003492776013445109</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.0005166225600987673</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0001288246130570769</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.0004360439488664269</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>9.339325333712623e-05</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>9.29082598304376e-05</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>8.740630437387154e-05</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.0001695942773949355</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.0002502007118891925</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>5.276987212710083e-05</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.0001371926628053188</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>3.089000529143959e-05</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.001302944030612707</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.0001800228492356837</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.0002044078282779083</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.0001010378473438323</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.0001814131246646866</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.0001317189598921686</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>7.511259173043072e-05</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>7.095192995620891e-05</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.0001724522007862106</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.000619681435637176</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.0001032346626743674</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.0001043530501192436</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.0001148991723312065</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.0001485629036324099</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.0002266421215608716</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>7.059287599986419e-05</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.0001690173521637917</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.0008805063553154469</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.0001358927838737145</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.0001872565189842135</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.001095279818400741</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.0005429125158116221</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.0007014228613115847</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.0006165137747302651</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.0003684494295157492</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.0003251582093071193</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.0001656257372815162</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.0005676117725670338</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>9.615143062546849e-05</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.0002930252230726182</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.0001352988183498383</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>7.947250560391694e-05</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.0002206504868809134</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.0001799060119083151</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.0001723882887745276</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.0002806545817293227</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.000551530160009861</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.0001470568822696805</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.0005524563021026552</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.001231647795066237</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.001186374807730317</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.0001345831406069919</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.0002396773343207315</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.0008612981182523072</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.0002336816105525941</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.0001059314017766155</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.0002681733458302915</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.0004239326517563313</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.0001678353291936219</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>0.0004054759338032454</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.0003566736704669893</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>0.000307325943140313</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>0.0002277263847645372</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>8.48897616378963e-05</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>0.0004221591807436198</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0.0001742387830745429</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>0.0004962297971360385</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>0.0003069161321036518</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0.0001505095133325085</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>7.643689605174586e-05</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0.0003267455904278904</v>
+      </c>
+      <c r="EE9" t="n">
+        <v>0.0007616282673552632</v>
+      </c>
+      <c r="EF9" t="n">
+        <v>0.0005612136446870863</v>
+      </c>
+      <c r="EG9" t="n">
+        <v>0.0008951883064582944</v>
+      </c>
+      <c r="EH9" t="n">
+        <v>6.432541704270989e-05</v>
+      </c>
+      <c r="EI9" t="n">
+        <v>0.0001813791604945436</v>
+      </c>
+      <c r="EJ9" t="n">
+        <v>9.435112588107586e-05</v>
+      </c>
+      <c r="EK9" t="n">
+        <v>0.0003271212626714259</v>
+      </c>
+      <c r="EL9" t="n">
+        <v>0.0003212945302948356</v>
+      </c>
+      <c r="EM9" t="n">
+        <v>0.0001746903581079096</v>
+      </c>
+      <c r="EN9" t="n">
+        <v>5.940150003880262e-05</v>
+      </c>
+      <c r="EO9" t="n">
+        <v>0.0002581137814559042</v>
+      </c>
+      <c r="EP9" t="n">
+        <v>0.0003381170681677759</v>
+      </c>
+      <c r="EQ9" t="n">
+        <v>8.285448711831123e-05</v>
+      </c>
+      <c r="ER9" t="n">
+        <v>0.000418306648498401</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0.0002797093475237489</v>
+      </c>
+      <c r="ET9" t="n">
+        <v>4.762167372973636e-05</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0.0005885777645744383</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0.0004540204245131463</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0.0001851621636888012</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0.000229274810408242</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0.0005826235865242779</v>
+      </c>
+      <c r="EZ9" t="n">
+        <v>3.88164771720767e-05</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>1.325404082308523e-05</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0.000108859094325453</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0.0001204452273668721</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0.0003317566006444395</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0.0001440963242202997</v>
+      </c>
+      <c r="FF9" t="n">
+        <v>0.0002812842139974236</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0.0001144496854976751</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0.0002643500629346818</v>
+      </c>
+      <c r="FI9" t="n">
+        <v>0.0003253495669923723</v>
+      </c>
+      <c r="FJ9" t="n">
+        <v>0.0005794989410787821</v>
+      </c>
+      <c r="FK9" t="n">
+        <v>0.0002302719076396897</v>
+      </c>
+      <c r="FL9" t="n">
+        <v>6.936895078979433e-05</v>
+      </c>
+      <c r="FM9" t="n">
+        <v>0.0001722056185826659</v>
+      </c>
+      <c r="FN9" t="n">
+        <v>0.0001363222399959341</v>
+      </c>
+      <c r="FO9" t="n">
+        <v>0.0002502445131540298</v>
+      </c>
+      <c r="FP9" t="n">
+        <v>0.0006497618742287159</v>
+      </c>
+      <c r="FQ9" t="n">
+        <v>0.0002649548696354032</v>
+      </c>
+      <c r="FR9" t="n">
+        <v>0.0003005223697982728</v>
+      </c>
+      <c r="FS9" t="n">
+        <v>0.000502966227941215</v>
+      </c>
+      <c r="FT9" t="n">
+        <v>9.294912160839885e-05</v>
+      </c>
+      <c r="FU9" t="n">
+        <v>0.0002811792655847967</v>
+      </c>
+      <c r="FV9" t="n">
+        <v>0.0001041432988131419</v>
+      </c>
+      <c r="FW9" t="n">
+        <v>2.798574132611975e-05</v>
+      </c>
+      <c r="FX9" t="n">
+        <v>0.0002305346424691379</v>
+      </c>
+      <c r="FY9" t="n">
+        <v>0.000729277147911489</v>
+      </c>
+      <c r="FZ9" t="n">
+        <v>0.0001017888644128107</v>
+      </c>
+      <c r="GA9" t="n">
+        <v>0.0001959515066118911</v>
+      </c>
+      <c r="GB9" t="n">
+        <v>1.62962078320561e-05</v>
+      </c>
+      <c r="GC9" t="n">
+        <v>0.000156287889694795</v>
+      </c>
+      <c r="GD9" t="n">
+        <v>0.0003006122133228928</v>
+      </c>
+      <c r="GE9" t="n">
+        <v>8.680026076035574e-05</v>
+      </c>
+      <c r="GF9" t="n">
+        <v>0.0002097943070111796</v>
+      </c>
+      <c r="GG9" t="n">
+        <v>0.0002751450520008802</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.180318832397461</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2624476253986359</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.03602723777294159</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2170795798301697</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1146289333701134</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.824756920337677</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2843971848487854</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2468066364526749</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1478591710329056</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8320124745368958</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2442663460969925</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.08131936937570572</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1893030107021332</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1216944605112076</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.7159577012062073</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.517544150352478</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.345853716135025</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.05499375611543655</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.122728168964386</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.301302045583725</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.08859209716320038</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1868656277656555</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4058549702167511</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1560489535331726</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.210093691945076</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1270359307527542</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.01843433082103729</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.2663926184177399</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.1188983246684074</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.149054080247879</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0740465372800827</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1120143160223961</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.1418112367391586</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.05035024881362915</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.05687310546636581</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.03541107103228569</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.2485543936491013</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.1174021139740944</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.1018578112125397</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.18299899995327</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.03424657136201859</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.05385412648320198</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.03006621822714806</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.141258493065834</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.01079247612506151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.7277436852455139</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.2824447453022003</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.1099474802613258</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.1571962535381317</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.5958960652351379</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.6714555621147156</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.05543580651283264</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.353589653968811</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.1189827397465706</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.2096754014492035</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.4472244381904602</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.1104241758584976</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.165772870182991</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.05268099904060364</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.03570632264018059</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.3716038465499878</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0.1683153361082077</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0.04659848660230637</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.02140155807137489</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.2061213105916977</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.05190711468458176</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.2324418872594833</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.1896874457597733</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.1815392524003983</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.1858390867710114</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.1701963841915131</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.1692915707826614</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.3561715483665466</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.2577700614929199</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.105206161737442</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.1410582214593887</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.387031614780426</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.4585424661636353</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.05101502686738968</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.2427727282047272</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.0170366894453764</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.2071567475795746</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.2340685129165649</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.009120514616370201</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.0006161481142044067</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.08329862356185913</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.1400411128997803</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.02694472298026085</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.2237138301134109</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.0202200785279274</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.03247847408056259</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.06939671188592911</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0.004537966102361679</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.006920285522937775</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.625977098941803</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.1016014590859413</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.08734869211912155</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.04722239077091217</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.02921108342707157</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.1915698796510696</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.2226179391145706</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.01289805956184864</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.02510286867618561</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.07357688993215561</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.1475271880626678</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>6.191432476043701e-06</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.2236250042915344</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.03981001675128937</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.08251099288463593</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.109473742544651</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.04461254179477692</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.1613059341907501</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.3635796308517456</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.002030434086918831</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.07045847177505493</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.2261217683553696</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.1083736270666122</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.1072840914130211</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.008241094648838043</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.1055444628000259</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.0298868790268898</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.04442330077290535</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>0.1124017238616943</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.1855147331953049</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0.4045686423778534</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0.04623319208621979</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>0.01469737198203802</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>0.1713905185461044</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>0.02710531279444695</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>0.03964009135961533</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>0.02378075942397118</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>0.3302265703678131</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>0.02017518505454063</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>0.02929426357150078</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>0.125989094376564</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>0.1558857858181</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>0.165084645152092</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>0.02859915792942047</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>0.07607606053352356</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>0.01644260250031948</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>0.02583561837673187</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>0.009257040917873383</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>0.03606799617409706</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>0.04177474975585938</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>0.07893306761980057</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>0.2749474346637726</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>0.06947876513004303</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0.1030310243368149</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>0.3104412257671356</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0.1382138133049011</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>0.1710902601480484</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>0.1514442712068558</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0.1365577876567841</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0.154307559132576</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0.1827547401189804</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>0.006807371973991394</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0.04828403517603874</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0.07718504220247269</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0.1069734692573547</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0.05345487222075462</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>0.2686589062213898</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0.03132621571421623</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0.1046399474143982</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>0.07016362249851227</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>0.0588342659175396</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>0.01723785698413849</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>0.09701593965291977</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>0.01401578821241856</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>0.06058432534337044</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>0.01227173767983913</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>0.02701780572533607</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>0.2454353868961334</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>0.1534387916326523</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>0.1370709389448166</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>0.09993056952953339</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>0.234009325504303</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>0.3053976893424988</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>0.1054039597511292</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>0.02449970506131649</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>0.005827286280691624</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>0.1003322303295135</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>0.02141768299043179</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>0.06822192668914795</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>0.05670862272381783</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>0.1061685085296631</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>0.07953757047653198</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>0.07594138383865356</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>0.130971685051918</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>0.04311869293451309</v>
       </c>
     </row>
   </sheetData>
